--- a/数据整理/stocks/港股/01999-敏华控股.xlsx
+++ b/数据整理/stocks/港股/01999-敏华控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4366,7 +4367,6 @@
           <t>长信双利优选混合E</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>86.69</t>
@@ -4382,6 +4382,2000 @@
       </c>
       <c r="H53" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8532</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6557</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4925</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4770</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4671</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3695</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3335</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0166</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9661</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7118</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7091</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7091</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5877</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5593</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5537</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4999</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011562</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富稳健盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01999-敏华控股.xlsx
+++ b/数据整理/stocks/港股/01999-敏华控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6381,4 +6382,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3846</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7534</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7221</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01999-敏华控股.xlsx
+++ b/数据整理/stocks/港股/01999-敏华控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7502,4 +7503,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01999-敏华控股.xlsx
+++ b/数据整理/stocks/港股/01999-敏华控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7511,7 +7512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7522,17 +7523,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7542,14 +7563,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.06</v>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>132.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7558,14 +7601,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.83</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7574,14 +7639,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>42.27</v>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7590,13 +7677,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0073</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1411</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1411</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9800</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9661</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8375</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7880</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6781</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5379</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>49</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>35</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01999-敏华控股.xlsx
+++ b/数据整理/stocks/港股/01999-敏华控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8746,7 +8747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8757,17 +8758,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8777,14 +8798,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.73</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8793,14 +8836,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.06</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8809,14 +8874,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.83</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0697</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8825,14 +8912,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>42.27</v>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8841,13 +8950,775 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6920</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6808</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5590</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>42.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>49</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>35</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01999-敏华控股.xlsx
+++ b/数据整理/stocks/港股/01999-敏华控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9601,7 +9602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9612,17 +9613,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9632,14 +9653,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.99</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -9648,14 +9691,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.73</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -9664,14 +9729,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.06</v>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -9680,14 +9767,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.83</v>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5646</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -9696,14 +9805,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>52</v>
-      </c>
-      <c r="D6" t="n">
-        <v>42.27</v>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5570</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -9712,13 +9843,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>52</v>
+      </c>
+      <c r="D7" t="n">
+        <v>42.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>49</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>35</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01999-敏华控股.xlsx
+++ b/数据整理/stocks/港股/01999-敏华控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>9.35</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>13.99</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>19.73</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>11.06</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>34.83</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>42.27</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>52</v>
+      </c>
+      <c r="D8" t="n">
+        <v>42.27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>49</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>35</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1813,7 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3047,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4167,7 +4392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6161,7 +6386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8186,7 +8411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01999-敏华控股.xlsx
+++ b/数据整理/stocks/港股/01999-敏华控股.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>2.97</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>9.35</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>13.99</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>19.73</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>11.06</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>34.83</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>42.27</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1948 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>52</v>
+      </c>
+      <c r="D9" t="n">
+        <v>42.27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>49</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8218</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9600</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7444</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1997</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1328</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0510</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7843</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4867</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4867</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3824</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2552,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0118</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8828</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>017536</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +3383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1184,7 +3743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2038,7 +4597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3272,7 +5831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4392,7 +6951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6386,7 +8945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8409,1922 +10968,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501054</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红睿泽三年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>128.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.6921</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>169103</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>52.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.8218</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009391</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富优质成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>83.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.9363</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005379</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富价值创造定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>95.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.8330</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002803</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>78.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.7144</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003396</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>26.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.9600</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004278</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红智逸沪港深定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>57.38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>36.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.7444</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>169102</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方红睿阳三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>24.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.6229</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>169104</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>41.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.3150</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>96.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.1997</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.1328</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.0510</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008132</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华价值驱动混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>15.17</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7843</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160127</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方新兴消费增长股票（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10.72</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.4867</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>160144</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方新兴消费增长股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.4867</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008075</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商核心优选股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.4672</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009392</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇添富优质成长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.4180</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005335</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浙商全景消费混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3824</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007193</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>恒越核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.3817</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>161818</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银华消费主题混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3812</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005583</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>易方达港股通红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3738</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2725</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006299</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>恒越核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2709</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>58.61</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2265</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006364</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>招商丰韵混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2220</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>900152</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2035</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1895</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1895</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>519991</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>长信双利优选混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1564</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006396</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>长信双利优选混合E</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1564</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1483</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006365</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>招商丰韵混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1284</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009181</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>浙商智多兴稳健回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>11.98</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>20.81</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1162</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006049</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合A/B</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007192</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0691</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009182</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>浙商智多兴稳健回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>20.81</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0572</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>006781</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0491</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007287</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>008076</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>招商核心优选股票C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>011032</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>东方红睿泽三年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>900022</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>900052</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>002214</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>89.74</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>007288</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>